--- a/experiments/results/methods_eval.xlsx
+++ b/experiments/results/methods_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C20283-2A15-4C10-A38C-4F61E26C4344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25388296-B2E3-40FF-B0BD-B8B810CEBAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6420" windowWidth="29040" windowHeight="15720" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/experiments/results/methods_eval.xlsx
+++ b/experiments/results/methods_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25388296-B2E3-40FF-B0BD-B8B810CEBAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4003E1E-4CA6-4C31-B566-B20455B0D589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
+    <workbookView xWindow="-28920" yWindow="6420" windowWidth="29040" windowHeight="15720" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528626DB-76D5-4FF5-AF9C-7E3E0E09574C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/experiments/results/methods_eval.xlsx
+++ b/experiments/results/methods_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4003E1E-4CA6-4C31-B566-B20455B0D589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A992BA-EFD7-4D49-BE70-8FECD32F3483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6420" windowWidth="29040" windowHeight="15720" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528626DB-76D5-4FF5-AF9C-7E3E0E09574C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/experiments/results/methods_eval.xlsx
+++ b/experiments/results/methods_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF428C-05AA-4C31-9513-57F34F07381A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF7952-E5C8-429E-9257-8916D436AD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
+    <workbookView xWindow="4710" yWindow="1830" windowWidth="19200" windowHeight="11170" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT DISTINCT ?study ?title ?disease
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH&lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study a obi:Study ;
            dc:title ?title ;
            ro:has_participant ?participant .
@@ -158,7 +158,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT DISTINCT ?study ?studyLabel
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study a obi:OBI_0000066 ;  # study entity
            dc:title ?studyLabel ;
            ro:related_to ?disease .
@@ -179,7 +179,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT DISTINCT ?study
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH&lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study ro:has_part ?study_design_execution .
     ?study_design_execution ro:concretizes ?observational_design .
     ?observational_design ro:has_part ?protocol .
@@ -196,7 +196,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT (COUNT(DISTINCT ?variable) AS ?variableCount)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH&lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     VALUES ?study { 
       cmeo:d1namo/study_design_variable_specification
     }
@@ -227,7 +227,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT (COUNT(?variable) AS ?variableCount)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?study a obi:Study ;
            dc:title "time-chf"^^xsd:string ;
            ro:has_part ?variable .
@@ -242,7 +242,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT (COUNT(?variable) AS ?variableCount)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH&lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     cmeo:time-chf/ongoing 
         &lt;http://purl.obolibrary.org/obo/iao.owl/is_about&gt; 
         cmeo:time-chf/study_design_execution .
@@ -269,7 +269,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT (COUNT(DISTINCT ?variable) AS ?drugVariableCount)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt;{
     ?variable dc:description ?desc ;
               dc:isPartOf cmeo:time-chf .
     FILTER(CONTAINS(LCASE(STR(?desc)), "drug"))
@@ -284,7 +284,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT (COUNT(?var) AS ?drugVarCount)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     ?var dc:isPartOf cmeo:time-chf .
     ?var dc:description ?desc .
     FILTER (
@@ -304,7 +304,7 @@
 PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
 SELECT (COUNT(?drugVar) AS ?drugVariableCount)
 WHERE {
-  GRAPH &lt;https://w3id.org/CDIO/graph/studies&gt; {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
     cmeo:time-chf/ongoing
         &lt;http://purl.obolibrary.org/obo/iao.owl/is_about&gt; 
         cmeo:time-chf/study_design_execution .
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528626DB-76D5-4FF5-AF9C-7E3E0E09574C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/experiments/results/methods_eval.xlsx
+++ b/experiments/results/methods_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF7952-E5C8-429E-9257-8916D436AD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A81BF10-C079-4B4A-9BAF-E031C34E7A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1830" windowWidth="19200" windowHeight="11170" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>query_id</t>
   </si>
@@ -53,11 +53,21 @@
     <t>with_nhop</t>
   </si>
   <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt; 
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study_name ?purpose ?inclusion
 WHERE {
     GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
@@ -83,11 +93,61 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt; 
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name ?purpose ?inclusion
+WHERE {
+    GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+         ?study a obi:study_design_execution ;
+                dc:identifier ?study_name;
+                ro:concretizes ?study_design.
+          ?study_design  ro:has_part ?protocol .
+         # Primary purpose specification
+         ?protocol ro:has_part ?purposeInst .
+         ?purposeInst a obi:objective_specification ;
+                      cmeo:has_value ?purpose .
+         # Inclusion criteria pattern (optional)
+         OPTIONAL {
+            ?protocol ro:has_part ?inclusionInst .
+            ?inclusionInst a obi:inclusion_criterion ;
+                           cmeo:has_value ?inclusion .
+         }
+         # Filter: Only include studies where the primary purpose or inclusion criteria contain "coronary heart disease"
+         FILTER( regex(lcase(str(?purpose)), 'coronary heart disease') ||
+           (BOUND(?inclusion) &amp;&amp; regex(lcase(str(?inclusion)), 'coronary heart disease'))
+         )
+    }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT  (COUNT(?data_element) AS ?var_count)
 WHERE {
    GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
@@ -99,15 +159,24 @@
 	 ?study_var_design a cmeo:study_design_variable_specification;
               ro:has_part ?data_element.
   }
-}
-</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt; 
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
       SELECT  (COUNT(?data_element) AS ?var_count)
       WHERE {
         GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
@@ -129,199 +198,745 @@
       }</t>
   </si>
   <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT DISTINCT ?study ?title ?disease
-WHERE {
-  GRAPH&lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    ?study a obi:Study ;
-           dc:title ?title ;
-           ro:has_participant ?participant .
-    ?participant ro:has_disease ?disease .
-    FILTER(?disease IN (
-      obi:diabetes_type_2,
-      obi:type_1_diabetes_mellitus,
-      &lt;https://w3id.org/CMEO/aachenhf/diabetes&gt;,
-      obi:at_risk_for_type_2_diabetes_mellitus
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT
+    ?study_name
+(GROUP_CONCAT(DISTINCT COALESCE(?part_uri); separator=";") AS ?all_parts_uri)
+(GROUP_CONCAT(DISTINCT COALESCE(?part_value); separator=";") AS ?all_parts_value)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+      ?study  a cmeo:randomized_controlled_trial;
+      			ro:has_part   ?protocol;
+              dc:identifier ?study_name.
+      ?protocol a obi:protocol;
+              (ro:has_part)+ ?part_uri .
+      ?part_uri cmeo:has_value ?part_value.
+  }
+}
+GROUP BY ?study_name</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name ?description
+WHERE { 
+    GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+        ?study_design dc:identifier ?study_name;
+            iao:is_about ?descriptor;
+            ro:has_part ?prot .
+        ?descriptor rdfs:label ?description.
+        ?prot a obi:protocol;
+          ro:has_part ?obj_spec.
+        ?obj_spec a obi:objective_specification ;
+            cmeo:has_value ?obj_val.
+        ?prot ro:has_part ?ec.
+        ?ec a obi:eligibility_criterion;
+            ro:has_part ?inc.
+        ?inc a obi:inclusion_criterion;
+            ro:has_part ?spec_inc.
+        ?spec_inc  cmeo:has_value ?inc_value.
+    FILTER(contains  (?obj_val,"heart failure") || contains  (?inc_value,"heart failure"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT ?study_name (GROUP_CONCAT(DISTINCT LCASE(STR(?quality_value)); separator="; ") AS ?qualities)
+(GROUP_CONCAT(DISTINCT LCASE(STR(?quality_type)); separator="; ") AS ?quality_type)
+WHERE {
+GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+	 ?study_design dc:identifier ?study_name ;
+            ro:has_part ?prot .
+        ?prot a obi:protocol ;
+            ro:has_part ?ec .
+        ?ec a obi:eligibility_criterion ;
+            ro:is_concretized_by ?hse_uri .
+        ?hse_uri ro:has_output ?population .
+        ?population a obi:population ;
+            ro:has_characteristic ?quality .
+        OPTIONAL { ?quality rdfs:label ?characteristic_value }
+        OPTIONAL { ?quality a  ?characteristic_type }
+}
+}
+GROUP BY ?study_name
+LIMIT 3</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study_name 
+(GROUP_CONCAT(DISTINCT CONCAT(LCASE(STR(?diagnosis_value)), " [", STR(?min_val), "-", STR(?max_value), "]"); SEPARATOR="; ") AS ?population)
+(GROUP_CONCAT(DISTINCT LCASE(STR(?intervention_value)); separator="; ") AS ?interventions)
+(GROUP_CONCAT(DISTINCT LCASE(STR(?comparator_value)); separator="; ") AS ?comparators)
+(GROUP_CONCAT(DISTINCT LCASE(STR(?outcome_value)); separator="; ") AS ?outcomes)
+WHERE {  
+    GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+        ?study_design dc:identifier ?study_name;
+             ro:has_part ?prot .
+        ?prot a obi:protocol; 
+        # Population from inclusion criteria
+        	ro:has_part ?eligibility_criterion .
+        ?eligibility_criterion a obi:eligibility_criterion ;
+            ro:has_part ?inclusion_criteria .
+        ?inclusion_criteria a obi:inclusion_criterion ;
+            ro:has_part ?inc_part.
+    	#DIAGNOSTIC INCLUSION
+    	OPTIONAL{
+         ?inc_part a obi:health_status_inclusion_criterion;
+              cmeo:has_value ?diagnosis_value .
+         FILTER(contains  (?diagnosis_value, "nyha class ii"))
+      }
+      #AGE INCLUSION
+      OPTIONAL{
+         ?inc_part a obi:age_group_inclusion_criterion;
+            ro:has_part ?min_val_specification, ?max_value_specification.	
+          ?min_val_specification a obi:minimum_age_value_specification; 
+              cmeo:has_value ?min_val.
+          ?max_value_specification a obi:maximum_age_value_specification; 
+              cmeo:has_value  ?max_value.
+          FILTER(xsd:integer(?min_val) &gt;= 60 &amp;&amp; xsd:integer(?max_value) &lt;= 85)
+      }
+     # Intervention
+    	OPTIONAL{
+        ?prot ro:has_part ?intervention .
+        ?intervention a cmeo:intervention_specification; cmeo:has_value ?intervention_value .
+        FILTER(contains  (?intervention_value,"intensified"))
+     }
+        # Comparator
+        ?prot ro:has_part ?comparator .
+        ?comparator a cmeo:comparator_specification ;cmeo:has_value ?comparator_value .
+        FILTER(contains  (?comparator_value,"standard guided"))
+        # Outcomes
+     }
+      OPTIONAL{
+        ?prot ro:has_part ?outcome .
+        ?outcome a cmeo:outcome_specification ;
+                ro:has_part ?suboutcome_uri.
+        ?suboutcome_uri  cmeo:has_value ?outcome_value .
+        FILTER(contains  (?outcome_value,"survival"))
+    }
+}
+GROUP BY ?study_name</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT ?study_name
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?assignment a cmeo:data_use_permission_assignment ;
+                iao:is_about ?x_study ;
+                obi:has_specified_output ?data_policy ;
+                obi:has_specified_output ?data_modifier .
+    ?x_study a obi:study_design_execution ;
+             dc:identifier ?study_name .
+    ?data_policy a duo:data_use_permission ;
+                 rdfs:label "disease specific research"^^xsd:string ;
+                 iao:is_about ?disease_code .
+    ?data_modifier a duo:data_use_modifier ;
+                   rdfs:label "ethics approval required"^^xsd:string .
+    OPTIONAL { ?disease_code rdfs:label "congestive heart failure"^^xsd:string }
+    OPTIONAL { ?disease_code cmeo:has_value "42343007"^^xsd:string }
+  }
+}
+ORDER BY ?study_name</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_label ?disease ?disease_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:study ;
+           iao:is_about ?disease ;
+           rdfs:label ?study_label .
+    ?disease a ?disease_type ;
+             rdfs:label ?disease_label .
+    FILTER (?disease_type IN (obi:diabetes_type_2, obi:type_1_diabetes_mellitus, obi:at_risk_for_type_2_diabetes_mellitus))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?studyLabel
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           iao:is_about ?disease ;
+           rdfs:label ?studyLabel .
+    ?disease a &lt;http://purl.obolibrary.org/obo/obi.owl/coronary_heart_disease&gt; .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT (COUNT(?variable) AS ?variableCount)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:study_design_variable_specification ;
+           ro:has_part ?variable .
+    FILTER(CONTAINS(STR(?study), "time-chf"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT (COUNT(?variable) AS ?drug_variable_count)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?variable cmeo:has_value ?value .
+    FILTER(CONTAINS(LCASE(STR(?value)), "drug"))
+    FILTER(CONTAINS(STR(?variable), "time-chf"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?trial ?protocol ?specification ?value
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?trial a cmeo:randomized_controlled_trial ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?specification .
+    ?specification cmeo:has_value ?value .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?condition_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:study ;
+           iao:is_about ?condition .
+    ?condition rdfs:label ?condition_label ;
+               cmeo:has_value ?condition_value .
+    FILTER(CONTAINS(LCASE(?condition_label), "heart failure") || 
+           CONTAINS(LCASE(?condition_value), "heart failure"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a ?studyType ;
+           ro:has_part ?population ;
+           ro:has_part ?intervention ;
+           ro:has_part ?outcome .
+    ?population a obi:population .
+    FILTER(?population IN (
+      &lt;https://w3id.org/CMEO/interval/output_population&gt;,
+      &lt;https://w3id.org/CMEO/comrate/output_population&gt;,
+      &lt;https://w3id.org/CMEO/gissi-3/output_population&gt;,
+      &lt;https://w3id.org/CMEO/believe/output_population&gt;,
+      &lt;https://w3id.org/CMEO/pnh-n1/output_population&gt;,
+      &lt;https://w3id.org/CMEO/ear/output_population&gt;,
+      &lt;https://w3id.org/CMEO/decade/output_population&gt;,
+      &lt;https://w3id.org/CMEO/cycle/output_population&gt;,
+      &lt;https://w3id.org/CMEO/maastrichtstudy/output_population&gt;,
+      &lt;https://w3id.org/CMEO/sfdt1/output_population&gt;,
+      &lt;https://w3id.org/CMEO/aachenhf/output_population&gt;,
+      &lt;https://w3id.org/CMEO/cardiateam/output_population&gt;,
+      &lt;https://w3id.org/CMEO/panache/output_population&gt;,
+      &lt;http://purl.obolibrary.org/obo/obi.owl/population&gt;
     ))
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT DISTINCT ?study ?studyLabel
-WHERE {
-  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    ?study a obi:OBI_0000066 ;  # study entity
-           dc:title ?studyLabel ;
-           ro:related_to ?disease .
-    FILTER(?disease IN (
-      cmeo:aachenhf/diabetes,
-      cmeo:time-chf/diabetes,
-      cmeo:cardiateam/type_2_diabetes_diagnosis_-_year,
-      cmeo:cardiateam/t2dm
+    ?intervention a cmeo:intervention_specification .
+    FILTER(?intervention IN (
+      &lt;https://w3id.org/CMEO/dp5/intervention&gt;,
+      &lt;https://w3id.org/CMEO/gissi_prevenzione/intervention&gt;,
+      &lt;https://w3id.org/CMEO/gissi-3/intervention&gt;,
+      &lt;https://w3id.org/CMEO/gissi-af/intervention&gt;,
+      &lt;https://w3id.org/CMEO/gissi-hf-outcomes/intervention&gt;,
+      &lt;https://w3id.org/CMEO/gissi-hf/intervention&gt;,
+      &lt;https://w3id.org/CMEO/gluco-insight/intervention&gt;
     ))
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+    ?outcome a cmeo:outcome_specification .
+    FILTER(?outcome IN (
+      &lt;https://w3id.org/CMEO/aachenhf/outcome_specification&gt;,
+      &lt;https://w3id.org/CMEO/aachenhf/primary_outcome_specification&gt;,
+      &lt;https://w3id.org/CMEO/aachenhf/secondary_outcome_specification&gt;,
+      &lt;https://w3id.org/CMEO/alohas/outcome_specification&gt;,
+      &lt;https://w3id.org/CMEO/avanti/outcome_specification&gt;,
+      &lt;https://w3id.org/CMEO/believe/outcome_specification&gt;,
+      &lt;https://w3id.org/CMEO/bigfoot/outcome_specification&gt;
+    ))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?population ?population_characteristics
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a ?study_type ;
+           ro:has_part ?population .
+    ?population a obi:population ;
+                cmeo:has_value ?population_characteristics .
+  }
+}</t>
+  </si>
+  <si>
+    <t>only_schema</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?disease
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           iao:is_about ?descriptor .
+    ?descriptor cmeo:has_value ?disease .
+    FILTER(CONTAINS(LCASE(?disease), "diabetes"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?disease_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           iao:is_about ?descriptor .
+    ?descriptor cmeo:has_value ?disease_label .
+    FILTER(CONTAINS(LCASE(?disease_label), "coronary heart disease"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT (COUNT(?variable) AS ?variable_count)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:study_design_variable_specification ;
+           dc:identifier ?id ;
+           ro:has_part ?variable .
+    FILTER(CONTAINS(LCASE(STR(?id)), "time-chf"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT (COUNT(?variable) AS ?drugVariableCount)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:study_design_variable_specification ;
+           dc:identifier "time-chf"^^xsd:string ;
+           ro:has_part ?variable .
+    ?variable cmeo:has_value ?value .
+    FILTER(CONTAINS(LCASE(STR(?value)), "drug"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT ?trial ?protocol
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?trial a cmeo:randomized_controlled_trial ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           iao:is_about ?descriptor ;
+           rdfs:label ?study_label .
+    ?descriptor cmeo:has_value ?condition_value .
+    FILTER(CONTAINS(LCASE(STR(?condition_value)), "heart failure"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT ?study ?populationCharacteristic ?value
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           ro:has_part ?eligibilityCriterion .
+    ?eligibilityCriterion a obi:eligibility_criterion ;
+           ro:has_part ?inclusionCriterion .
+    ?inclusionCriterion a obi:inclusion_criterion ;
+           ro:has_part ?populationCharacteristic .
+    ?populationCharacteristic cmeo:has_value ?value .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           rdfs:label ?study_label ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?eligibility_criterion, ?intervention, ?comparator, ?outcome .
+    ?eligibility_criterion a obi:eligibility_criterion .
+    ?intervention a cmeo:intervention_specification .
+    ?comparator a cmeo:comparator_specification .
+    ?outcome a cmeo:outcome_specification .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
 SELECT DISTINCT ?study
 WHERE {
-  GRAPH&lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    ?study ro:has_part ?study_design_execution .
-    ?study_design_execution ro:concretizes ?observational_design .
-    ?observational_design ro:has_part ?protocol .
-    ?protocol ro:has_part ?variable_spec .
-    ?variable_spec ro:has_part cmeo:diabetes .
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT (COUNT(DISTINCT ?variable) AS ?variableCount)
-WHERE {
-  GRAPH&lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    VALUES ?study { 
-      cmeo:d1namo/study_design_variable_specification
-    }
-    VALUES ?timechfVar {
-      cmeo:time-chf/administrator
-      cmeo:time-chf/administrator_role
-      cmeo:time-chf/administrator/email_address
-      cmeo:time-chf/age_distribution
-      cmeo:time-chf/age_group_inclusion_criterion
-      cmeo:time-chf/age_group_inclusion_criterion/maximum_age_value_specification
-      cmeo:time-chf/age_group_inclusion_criterion/minimum_age_value_specification
-      cmeo:time-chf/inclusion_criterion
-      cmeo:time-chf/exclusion_criterion
-      cmeo:time-chf/bmi_range_exclusion_criterion
-      cmeo:time-chf/bmi_range_inclusion_criterion
-      cmeo:time-chf/clinically_relevant_exposure_exclusion_criterion
-    }
-    ?study ro:relatedTo ?timechfVar .
-    BIND(?timechfVar AS ?variable)
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT (COUNT(?variable) AS ?variableCount)
-WHERE {
-  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    ?study a obi:Study ;
-           dc:title "time-chf"^^xsd:string ;
-           ro:has_part ?variable .
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT (COUNT(?variable) AS ?variableCount)
-WHERE {
-  GRAPH&lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    cmeo:time-chf/ongoing 
-        &lt;http://purl.obolibrary.org/obo/iao.owl/is_about&gt; 
-        cmeo:time-chf/study_design_execution .
-    cmeo:time-chf/study_design_execution 
-        ro:concretizes 
-        cmeo:time-chf/randomized_controlled_trial .
-    cmeo:time-chf/randomized_controlled_trial 
-        ro:has_part 
-        cmeo:time-chf/randomized_controlled_trial/protocol .
-    cmeo:time-chf/randomized_controlled_trial/protocol 
-        ro:has_part 
-        cmeo:time-chf/study_design_variable_specification .
-    cmeo:time-chf/study_design_variable_specification 
-        ro:has_part 
-        ?variable .
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT (COUNT(DISTINCT ?variable) AS ?drugVariableCount)
-WHERE {
-  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt;{
-    ?variable dc:description ?desc ;
-              dc:isPartOf cmeo:time-chf .
-    FILTER(CONTAINS(LCASE(STR(?desc)), "drug"))
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT (COUNT(?var) AS ?drugVarCount)
-WHERE {
-  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    ?var dc:isPartOf cmeo:time-chf .
-    ?var dc:description ?desc .
-    FILTER (
-      CONTAINS(LCASE(STR(?desc)), "drug") ||
-      CONTAINS(LCASE(STR(?desc)), "medication") ||
-      CONTAINS(LCASE(STR(?desc)), "therapy") ||
-      CONTAINS(LCASE(STR(?desc)), "treatment")
-    )
-  }
-}</t>
-  </si>
-  <si>
-    <t>PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
-PREFIX cmeo: &lt;https://w3id.org/CMEO/&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
-SELECT (COUNT(?drugVar) AS ?drugVariableCount)
-WHERE {
-  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
-    cmeo:time-chf/ongoing
-        &lt;http://purl.obolibrary.org/obo/iao.owl/is_about&gt; 
-        cmeo:time-chf/study_design_execution .
-    cmeo:time-chf/study_design_execution
-        ro:concretizes 
-        cmeo:time-chf/randomized_controlled_trial .
-    cmeo:time-chf/randomized_controlled_trial
-        ro:has_part 
-        cmeo:time-chf/randomized_controlled_trial/protocol .
-    cmeo:time-chf/randomized_controlled_trial/protocol
-        ro:has_part 
-        cmeo:time-chf/study_design_variable_specification .
-    cmeo:time-chf/study_design_variable_specification
-        ro:has_part 
-        ?drugVar .
-    ?drugVar dc:subject ?subject .
-    FILTER(CONTAINS(LCASE(STR(?subject)), "drug"))
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           iao:is_about ?descriptor ;
+           ro:has_part ?data_policy , ?data_modifier .
+    ?data_policy a duo:data_use_permission ;
+                 rdfs:label "disease specific research"^^xsd:string .
+    ?data_modifier a duo:data_use_modifier ;
+                   rdfs:label "ethics approval required"^^xsd:string .
+    ?descriptor cmeo:has_value ?disease .
+    FILTER(CONTAINS(LCASE(?disease), "congestive heart failure"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:study ;
+           rdfs:label ?label ;
+           ro:has_part ?data_access_policy .
+    ?data_access_policy a duo:data_use_permission ;
+                        rdfs:label "disease specific research"^^xsd:string .
+    ?data_access_policy ro:has_part ?data_modifier .
+    ?data_modifier a duo:data_use_modifier ;
+                   rdfs:label "ethics approval required"^^xsd:string .
+    ?study iao:is_about ?disease .
+    ?disease rdfs:label ?disease_label .
+    FILTER(CONTAINS(LCASE(?disease_label), "congestive heart failure"))
   }
 }</t>
   </si>
@@ -698,21 +1313,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528626DB-76D5-4FF5-AF9C-7E3E0E09574C}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="2" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,71 +1335,151 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/results/methods_eval.xlsx
+++ b/experiments/results/methods_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A81BF10-C079-4B4A-9BAF-E031C34E7A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D7C05E-4089-4300-B392-58A19D971BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>query_id</t>
   </si>
@@ -937,6 +937,501 @@
     ?study iao:is_about ?disease .
     ?disease rdfs:label ?disease_label .
     FILTER(CONTAINS(LCASE(?disease_label), "congestive heart failure"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:observational_design ;
+           iao:is_about ?descriptor ;
+           rdfs:label ?study_label .
+    ?descriptor cmeo:has_value ?desc_value .
+    FILTER(CONTAINS(LCASE(STR(?desc_value)), "diabetes"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:observational_design ;
+           iao:is_about ?descriptor ;
+           rdfs:label ?study_label .
+    ?descriptor cmeo:has_value ?disease_value .
+    FILTER (CONTAINS(LCASE(STR(?disease_value)), "coronary heart disease"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT (COUNT(?variable) AS ?variable_count)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:study_design_variable_specification ;
+           ro:has_part ?variable .
+    FILTER(CONTAINS(STR(?study), "time-chf"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT (COUNT(?drugVar) AS ?drugVariableCount)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study rdf:type cmeo:study_design_variable_specification ;
+           rdfs:label ?label ;
+           ro:has_part ?drugVar .
+    FILTER(CONTAINS(LCASE(STR(?drugVar)), "time-chf"))
+    FILTER(CONTAINS(LCASE(STR(?drugVar)), "drug") ||
+           CONTAINS(LCASE(STR(?drugVar)), "medication") ||
+           CONTAINS(LCASE(STR(?drugVar)), "therapy") ||
+           CONTAINS(LCASE(STR(?drugVar)), "treatment") )
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:observational_design ;
+           rdfs:label ?study_label ;
+           ro:has_part ?eligibility_criterion .
+    ?eligibility_criterion a obi:eligibility_criterion ;
+                           ro:has_part ?inclusion_criterion .
+    ?inclusion_criterion a obi:inclusion_criterion ;
+                         ro:has_part ?health_status_criterion .
+    ?health_status_criterion a obi:health_status_inclusion_criterion ;
+                             cmeo:has_value ?condition_value .
+    FILTER(CONTAINS(LCASE(?condition_value), "heart failure"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?population_characteristic ?value
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:observational_design .
+    ?study ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?population_characteristic .
+    ?population_characteristic a obi:number_of_participants ;
+                               cmeo:has_value ?value .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_id ?population ?intervention ?comparator ?outcome
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a ?study_type ;
+           dc:identifier ?study_id ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?population ,
+                          ?intervention ,
+                          ?comparator ,
+                          ?outcome .
+    ?population a obi:eligibility_criterion ;
+                ro:has_part ?number_of_participants .
+    ?number_of_participants cmeo:has_value ?population_value .
+    ?intervention a cmeo:intervention_specification ;
+                  cmeo:has_value ?intervention_value .
+    ?comparator a cmeo:comparator_specification ;
+                cmeo:has_value ?comparator_value .
+    ?outcome a cmeo:outcome_specification ;
+             cmeo:has_value ?outcome_value .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?identifier ?disease ?permission_label ?modifier_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:observational_design ;
+           dc:identifier ?identifier ;
+           iao:is_about ?descriptor ;
+           ro:has_part ?data_policy .
+    ?descriptor cmeo:has_value ?disease .
+    FILTER(CONTAINS(LCASE(?disease), "heart failure"))
+    ?data_policy a duo:data_use_permission ;
+                 rdfs:label ?permission_label ;
+                 ro:has_part ?data_modifier .
+    ?data_modifier a duo:data_use_modifier ;
+                   rdfs:label ?modifier_label .
+    FILTER(CONTAINS(LCASE(?modifier_label), "ethics approval"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?disease_value
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           iao:is_about ?descriptor .
+    ?descriptor cmeo:has_value ?disease_value .
+    FILTER(CONTAINS(LCASE(?disease_value), "diabetes"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?descriptor ?value
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a ?studyType ;
+           iao:is_about ?descriptor .
+    ?descriptor cmeo:has_value ?value .
+    FILTER(CONTAINS(LCASE(STR(?value)), "coronary heart disease"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT (COUNT(?variable) AS ?variable_count)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:study_design_variable_specification ;
+           dc:identifier ?id .
+    FILTER(CONTAINS(LCASE(?id), "time-chf"))
+    ?study ro:has_part ?variable .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT (COUNT(?variable) AS ?drug_variable_count)
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           dc:identifier "time-chf"^^xsd:string ;
+           ro:has_part ?protocol .
+    ?protocol ro:has_part ?designVarSpec .
+    ?designVarSpec a cmeo:study_design_variable_specification ;
+                   ro:has_part ?variable .
+    ?variable cmeo:has_value ?value .
+    FILTER(CONTAINS(LCASE(STR(?value)), "drug"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT ?randomized_trial ?protocol ?protocol_value
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?randomized_trial a cmeo:randomized_controlled_trial ;
+                      ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              cmeo:has_value ?protocol_value .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?study_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           iao:is_about ?descriptor ;
+           dc:identifier ?study_label .
+    ?descriptor cmeo:has_value ?condition_value .
+    FILTER(CONTAINS(LCASE(?condition_value), "heart failure"))
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?population ?characteristic
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?eligibility a obi:eligibility_criterion ;
+                 ro:is_concretized_by ?enrollment .
+    ?enrollment ro:has_output ?population .
+    ?population a obi:population ;
+                ro:has_characteristic ?characteristic .
+    ?eligibility ro:part_of ?study .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           ro:has_part ?protocol .
+    ?protocol a obi:protocol ;
+              ro:has_part ?eligibility_criterion, ?intervention, ?comparator, ?outcome_specification .
+    ?eligibility_criterion a obi:eligibility_criterion .
+    ?intervention a cmeo:intervention_specification .
+    ?comparator a cmeo:comparator_specification .
+    ?outcome_specification a cmeo:outcome_specification .
+  }
+}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; 
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; 
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX bfo: &lt;http://purl.obolibrary.org/obo/bfo.owl/&gt;
+PREFIX obi: &lt;http://purl.obolibrary.org/obo/obi.owl/&gt;
+PREFIX ro: &lt;http://purl.obolibrary.org/obo/ro.owl/&gt;
+PREFIX iao: &lt;http://purl.obolibrary.org/obo/iao.owl/&gt;
+PREFIX sio: &lt;http://semanticscience.org/ontology/sio.owl/&gt; 
+PREFIX duo: &lt;http://purl.obolibrary.org/obo/duo/&gt;
+PREFIX obcs: &lt;http://purl.obolibrary.org/obo/obcs.owl/&gt; 
+PREFIX stato: &lt;http://purl.obolibrary.org/obo/stato.owl/&gt;
+PREFIX cdi: &lt;http://ddialliance.org/Specification/DDI-CDI/1.0/RDF/&gt;
+PREFIX cd: &lt;http://citydata.wu.ac.at/ns#&gt;
+PREFIX cmeo: &lt;https://w3id.org/cmeo/&gt;
+SELECT DISTINCT ?study ?permission_label ?modifier_label
+WHERE {
+  GRAPH &lt;https://w3id.org/CMEO/graph/studies_metadata&gt; {
+    ?study a cmeo:randomized_controlled_trial ;
+           iao:is_about ?descriptor .
+    ?descriptor rdfs:label ?disease_label .
+    FILTER(CONTAINS(LCASE(?disease_label), "congestive heart failure")) .
+    ?study ro:has_part ?data_policy .
+    ?data_policy a duo:data_use_permission ;
+                 rdfs:label ?permission_label .
+    FILTER(CONTAINS(LCASE(?permission_label), "research")) .
+    ?study ro:has_part ?data_modifier .
+    ?data_modifier a duo:data_use_modifier ;
+                   rdfs:label ?modifier_label .
+    FILTER(CONTAINS(LCASE(?modifier_label), "ethics approval")) .
   }
 }</t>
   </si>
@@ -1315,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528626DB-76D5-4FF5-AF9C-7E3E0E09574C}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,8 +1855,12 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -1376,8 +1875,12 @@
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -1392,8 +1895,12 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -1408,8 +1915,12 @@
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -1424,6 +1935,12 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -1438,6 +1955,12 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1452,6 +1975,12 @@
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1466,6 +1995,12 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1479,6 +2014,12 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/results/methods_eval.xlsx
+++ b/experiments/results/methods_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D7C05E-4089-4300-B392-58A19D971BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC93096-86F5-4B76-973E-691F257FBF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
   </bookViews>
@@ -1810,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528626DB-76D5-4FF5-AF9C-7E3E0E09574C}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/experiments/results/methods_eval.xlsx
+++ b/experiments/results/methods_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC93096-86F5-4B76-973E-691F257FBF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E416C14-94CC-4521-B3FB-5AD17A0EC325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{FC4796CB-7247-4160-AFC0-215DCB58961B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1810,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528626DB-76D5-4FF5-AF9C-7E3E0E09574C}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
